--- a/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_Vertica.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_Vertica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Pipeline\Data test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Workspace\ui-test\ui-testsuite\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="252">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -766,7 +766,25 @@
     <t>Platform - VERTICA-Test</t>
   </si>
   <si>
-    <t>Abiba Systems Private Limited-test</t>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>0232034394</t>
+  </si>
+  <si>
+    <t>vbxpgs836723</t>
+  </si>
+  <si>
+    <t>Japan</t>
   </si>
 </sst>
 </file>
@@ -1238,79 +1256,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K14"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="BD14" sqref="BD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.6640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="35.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19" style="1" customWidth="1"/>
-    <col min="46" max="47" width="19" style="2" customWidth="1"/>
-    <col min="48" max="52" width="19" style="1" customWidth="1"/>
-    <col min="53" max="53" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="23.5" style="13" customWidth="1"/>
-    <col min="67" max="70" width="22.33203125" style="2" customWidth="1"/>
-    <col min="71" max="71" width="23.5" style="2" customWidth="1"/>
-    <col min="72" max="72" width="23.5" style="1" customWidth="1"/>
-    <col min="73" max="73" width="23.5" style="2" customWidth="1"/>
-    <col min="74" max="74" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="37.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="14" width="25.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="30.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="25.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="28.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="16.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="37.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="30" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="30.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="21.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="21.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="18.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="23" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="25" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="30.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="22.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="28.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="26.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="37.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="17.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="25.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="28.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="35.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="37.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="20.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="16.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="20.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="19" style="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="47" width="19" style="2" customWidth="1" collapsed="1"/>
+    <col min="48" max="52" width="19" style="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="15.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="12.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="14.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="24" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="58" width="7.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="12.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="8.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="11.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="9.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="15.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="66" width="23.5" style="13" customWidth="1" collapsed="1"/>
+    <col min="67" max="70" width="22.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="23.5" style="2" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="23.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="23.5" style="2" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="15.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="9.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="13.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="19" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="16.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="19" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="16384" width="9.33203125" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" s="12" customFormat="1" ht="12.75">
@@ -1584,7 +1602,7 @@
         <v>97</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>98</v>
@@ -1698,8 +1716,8 @@
       <c r="AW2" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX2" s="1">
-        <v>214002901789</v>
+      <c r="AX2" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>115</v>
@@ -1801,19 +1819,19 @@
         <v>172</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>98</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>137</v>
+        <v>251</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>137</v>
+        <v>251</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>137</v>
+        <v>251</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>243</v>
@@ -1914,8 +1932,8 @@
       <c r="AW3" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX3" s="1">
-        <v>214002901789</v>
+      <c r="AX3" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>141</v>
@@ -2013,7 +2031,7 @@
         <v>181</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>98</v>
@@ -2126,8 +2144,8 @@
       <c r="AW4" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX4" s="1">
-        <v>214002901789</v>
+      <c r="AX4" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>141</v>
@@ -2225,7 +2243,7 @@
         <v>193</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>98</v>
@@ -2338,8 +2356,8 @@
       <c r="AW5" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX5" s="1">
-        <v>214002901789</v>
+      <c r="AX5" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>130</v>
@@ -2437,7 +2455,7 @@
         <v>206</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>98</v>
@@ -2550,8 +2568,8 @@
       <c r="AW6" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX6" s="1">
-        <v>214002901789</v>
+      <c r="AX6" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>130</v>
@@ -2649,7 +2667,7 @@
         <v>217</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>98</v>
@@ -2762,8 +2780,8 @@
       <c r="AW7" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX7" s="1">
-        <v>214002901789</v>
+      <c r="AX7" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>130</v>
@@ -2861,7 +2879,7 @@
         <v>217</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>98</v>
@@ -2974,8 +2992,8 @@
       <c r="AW8" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX8" s="1">
-        <v>214002901789</v>
+      <c r="AX8" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>130</v>
@@ -3073,7 +3091,7 @@
         <v>217</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>98</v>
@@ -3082,10 +3100,10 @@
         <v>148</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>218</v>
@@ -3183,8 +3201,8 @@
       <c r="AW9" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX9" s="1">
-        <v>214002901789</v>
+      <c r="AX9" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>130</v>
@@ -3282,7 +3300,7 @@
         <v>217</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>98</v>
@@ -3392,8 +3410,8 @@
       <c r="AW10" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX10" s="1">
-        <v>214002901789</v>
+      <c r="AX10" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="AY10" s="1" t="s">
         <v>130</v>
@@ -3491,7 +3509,7 @@
         <v>217</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>98</v>
@@ -3604,8 +3622,8 @@
       <c r="AW11" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX11" s="1">
-        <v>214002901789</v>
+      <c r="AX11" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>130</v>
@@ -3703,7 +3721,7 @@
         <v>123</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>98</v>
@@ -3712,10 +3730,10 @@
         <v>148</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>221</v>
@@ -3819,8 +3837,8 @@
       <c r="AW12" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX12" s="1">
-        <v>214002901789</v>
+      <c r="AX12" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>130</v>
@@ -3918,7 +3936,7 @@
         <v>147</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>98</v>
@@ -3927,10 +3945,10 @@
         <v>148</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="P13" s="22" t="s">
         <v>241</v>
@@ -4031,8 +4049,8 @@
       <c r="AW13" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX13" s="1">
-        <v>214002901789</v>
+      <c r="AX13" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="AY13" s="1" t="s">
         <v>130</v>
@@ -4130,7 +4148,7 @@
         <v>147</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>98</v>
@@ -4139,10 +4157,10 @@
         <v>148</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
       <c r="P14" s="22" t="s">
         <v>242</v>
@@ -4246,8 +4264,8 @@
       <c r="AW14" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX14" s="1">
-        <v>214002901789</v>
+      <c r="AX14" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="AY14" s="1" t="s">
         <v>130</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_Vertica.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_Vertica.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Workspace\ui-test\ui-testsuite\src\main\resources\TestData\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="256">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -785,6 +785,18 @@
   </si>
   <si>
     <t>Japan</t>
+  </si>
+  <si>
+    <t>4267457283</t>
+  </si>
+  <si>
+    <t>ybknrh359594</t>
+  </si>
+  <si>
+    <t>8728482051</t>
+  </si>
+  <si>
+    <t>tvivqt006889</t>
   </si>
 </sst>
 </file>
@@ -794,7 +806,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -843,6 +855,16 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1262,73 +1284,73 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="37.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="14" width="25.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="30.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="25.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="28.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="37.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="30" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="30.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="21.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="21.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="18.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="23" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="25" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="30.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="22.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="28.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="26.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="37.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="17.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="25.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="28.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="35.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="37.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="20.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="16.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="20.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="19" style="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="47" width="19" style="2" customWidth="1" collapsed="1"/>
-    <col min="48" max="52" width="19" style="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="15.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="12.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="14.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="24" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="58" width="7.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="12.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="8.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="11.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="9.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="15.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="66" width="23.5" style="13" customWidth="1" collapsed="1"/>
-    <col min="67" max="70" width="22.33203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="23.5" style="2" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="23.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="23.5" style="2" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="15.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="9.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="13.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="19" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="78" width="16.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="79" width="19" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="80" max="16384" width="9.33203125" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="40.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="21.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="21.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="26.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="37.1640625" collapsed="true"/>
+    <col min="12" max="14" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="30.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="22.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="28.1640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="16.83203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="37.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="30.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="21.1640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="18.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="22.1640625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="26.33203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="37.33203125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="17.1640625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="25.6640625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="35.5" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="1" width="37.1640625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="16.6640625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="20.83203125" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="46" max="47" customWidth="true" style="2" width="19.0" collapsed="true"/>
+    <col min="48" max="52" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="15.83203125" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="12.6640625" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="14.6640625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="57" max="58" bestFit="true" customWidth="true" style="1" width="7.6640625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="12.83203125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="1" width="8.5" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="1" width="11.33203125" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="1" width="9.33203125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="64" max="66" customWidth="true" style="13" width="23.5" collapsed="true"/>
+    <col min="67" max="70" customWidth="true" style="2" width="22.33203125" collapsed="true"/>
+    <col min="71" max="71" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="72" max="72" customWidth="true" style="1" width="23.5" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="1" width="9.1640625" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="1" width="13.1640625" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="80" max="16384" style="1" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" s="12" customFormat="1" ht="12.75">
@@ -1602,7 +1624,7 @@
         <v>97</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>98</v>
@@ -1717,7 +1739,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>115</v>
@@ -1819,7 +1841,7 @@
         <v>172</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>98</v>
@@ -1933,7 +1955,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>141</v>
@@ -2031,7 +2053,7 @@
         <v>181</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>98</v>
@@ -2145,7 +2167,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>141</v>
@@ -2243,7 +2265,7 @@
         <v>193</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>98</v>
@@ -2357,7 +2379,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>130</v>
@@ -2455,7 +2477,7 @@
         <v>206</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>98</v>
@@ -2569,7 +2591,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>130</v>
@@ -2667,7 +2689,7 @@
         <v>217</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>98</v>
@@ -2781,7 +2803,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>130</v>
@@ -2879,7 +2901,7 @@
         <v>217</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>98</v>
@@ -2993,7 +3015,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>130</v>
@@ -3091,7 +3113,7 @@
         <v>217</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>98</v>
@@ -3202,7 +3224,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>130</v>
@@ -3300,7 +3322,7 @@
         <v>217</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>98</v>
@@ -3411,7 +3433,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AY10" s="1" t="s">
         <v>130</v>
@@ -3509,7 +3531,7 @@
         <v>217</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>98</v>
@@ -3623,7 +3645,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>130</v>
@@ -3721,7 +3743,7 @@
         <v>123</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>98</v>
@@ -3838,7 +3860,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>130</v>
@@ -3936,7 +3958,7 @@
         <v>147</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>98</v>
@@ -4050,7 +4072,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AY13" s="1" t="s">
         <v>130</v>
@@ -4148,7 +4170,7 @@
         <v>147</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>98</v>
@@ -4265,7 +4287,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AY14" s="1" t="s">
         <v>130</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_Vertica.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_Vertica.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="260">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -797,6 +797,18 @@
   </si>
   <si>
     <t>tvivqt006889</t>
+  </si>
+  <si>
+    <t>9851087218</t>
+  </si>
+  <si>
+    <t>mnnkwe497664</t>
+  </si>
+  <si>
+    <t>7038567858</t>
+  </si>
+  <si>
+    <t>htudix371430</t>
   </si>
 </sst>
 </file>
@@ -806,7 +818,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -855,6 +867,16 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1624,7 +1646,7 @@
         <v>97</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>98</v>
@@ -1739,7 +1761,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>115</v>
@@ -1841,7 +1863,7 @@
         <v>172</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>98</v>
@@ -1955,7 +1977,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>141</v>
@@ -2053,7 +2075,7 @@
         <v>181</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>98</v>
@@ -2167,7 +2189,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>141</v>
@@ -2265,7 +2287,7 @@
         <v>193</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>98</v>
@@ -2379,7 +2401,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>130</v>
@@ -2477,7 +2499,7 @@
         <v>206</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>98</v>
@@ -2591,7 +2613,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>130</v>
@@ -2689,7 +2711,7 @@
         <v>217</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>98</v>
@@ -2803,7 +2825,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>130</v>
@@ -2901,7 +2923,7 @@
         <v>217</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>98</v>
@@ -3015,7 +3037,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>130</v>
@@ -3113,7 +3135,7 @@
         <v>217</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>98</v>
@@ -3224,7 +3246,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>130</v>
@@ -3322,7 +3344,7 @@
         <v>217</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>98</v>
@@ -3433,7 +3455,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AY10" s="1" t="s">
         <v>130</v>
@@ -3531,7 +3553,7 @@
         <v>217</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>98</v>
@@ -3645,7 +3667,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>130</v>
@@ -3743,7 +3765,7 @@
         <v>123</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>98</v>
@@ -3860,7 +3882,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>130</v>
@@ -3958,7 +3980,7 @@
         <v>147</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>98</v>
@@ -4072,7 +4094,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AY13" s="1" t="s">
         <v>130</v>
@@ -4170,7 +4192,7 @@
         <v>147</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>98</v>
@@ -4287,7 +4309,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AY14" s="1" t="s">
         <v>130</v>
